--- a/log_history/Y2_B2526_selected_2025-10-30T21-48-15.xlsx
+++ b/log_history/Y2_B2526_selected_2025-10-30T21-48-15.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moham\Desktop\log_history\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{508A7FA3-F0EE-4F97-953B-8D3A85C4E37A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07EE743C-244A-4DEE-B2F2-B9E1EAC6CB4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4930,7 +4930,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -4987,7 +4987,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -5216,7 +5216,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.07421875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
